--- a/Practic1_2024/wwwroot/downloads/input.xlsx
+++ b/Practic1_2024/wwwroot/downloads/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\source\repos\Practic1_2024\Practic1_2024\wwwroot\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C985811F-25B4-42FD-99F2-86D40B4B52EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7812D40A-9B32-4CE5-AE29-502B3A7D114A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="categories" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="130">
   <si>
     <t>Название</t>
   </si>
@@ -426,6 +426,12 @@
   </si>
   <si>
     <t>PasswordResetToken</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -856,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1311,7 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -1561,9 +1567,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1581,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>83</v>
@@ -1592,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>84</v>
@@ -1603,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>85</v>
@@ -1614,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
@@ -1625,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>87</v>
@@ -1640,7 +1652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1662,8 +1676,8 @@
       <c r="B2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1673,8 +1687,8 @@
       <c r="B3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" t="b">
-        <v>0</v>
+      <c r="C3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1684,8 +1698,8 @@
       <c r="B4" t="s">
         <v>92</v>
       </c>
-      <c r="C4" t="b">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1695,8 +1709,8 @@
       <c r="B5" t="s">
         <v>93</v>
       </c>
-      <c r="C5" t="b">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1706,8 +1720,8 @@
       <c r="B6" t="s">
         <v>94</v>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1741,8 +1757,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>96</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -1758,8 +1774,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>97</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>115</v>
@@ -1775,8 +1791,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>98</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -1792,8 +1808,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>96</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -1809,8 +1825,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>99</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
